--- a/gpress.architecture.xlsx
+++ b/gpress.architecture.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/jdev/ws2016.gp/gp.pcm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.workspace\gp.pcm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -109,6 +106,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -183,15 +183,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -200,8 +200,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="2349500"/>
-          <a:ext cx="2336800" cy="1219200"/>
+          <a:off x="5778500" y="2447925"/>
+          <a:ext cx="2352675" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -259,16 +259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -277,8 +277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124200" y="4394200"/>
-          <a:ext cx="2336800" cy="1219200"/>
+          <a:off x="1885950" y="4156075"/>
+          <a:ext cx="2349500" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -328,16 +328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -346,8 +346,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6781800" y="4419600"/>
-          <a:ext cx="2336800" cy="1219200"/>
+          <a:off x="5060950" y="4391025"/>
+          <a:ext cx="2349500" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,13 +663,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -697,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -705,12 +705,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>

--- a/gpress.architecture.xlsx
+++ b/gpress.architecture.xlsx
@@ -118,16 +118,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -136,7 +136,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2209800" y="2286000"/>
+          <a:off x="1574800" y="2222500"/>
           <a:ext cx="2336800" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -183,15 +183,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -200,7 +200,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210300" y="2349500"/>
+          <a:off x="6108700" y="2235200"/>
           <a:ext cx="2336800" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -259,16 +259,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -277,7 +277,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124200" y="4394200"/>
+          <a:off x="1574800" y="4483100"/>
           <a:ext cx="2336800" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -328,16 +328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -346,7 +346,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6781800" y="4419600"/>
+          <a:off x="6121400" y="4521200"/>
           <a:ext cx="2336800" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/gpress.architecture.xlsx
+++ b/gpress.architecture.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/jdev/ws2016.gp/gp.pcm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2.workspace\gp.pcm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -110,6 +107,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -118,16 +118,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -136,7 +136,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1574800" y="2222500"/>
+          <a:off x="2209800" y="2286000"/>
           <a:ext cx="2336800" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -183,15 +183,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -200,8 +200,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6108700" y="2235200"/>
-          <a:ext cx="2336800" cy="1219200"/>
+          <a:off x="5778500" y="2447925"/>
+          <a:ext cx="2352675" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -260,15 +260,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -277,8 +277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1574800" y="4483100"/>
-          <a:ext cx="2336800" cy="1219200"/>
+          <a:off x="1885950" y="4156075"/>
+          <a:ext cx="2349500" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -328,16 +328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -346,8 +346,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6121400" y="4521200"/>
-          <a:ext cx="2336800" cy="1219200"/>
+          <a:off x="5060950" y="4391025"/>
+          <a:ext cx="2349500" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,13 +663,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -697,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -705,12 +705,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
